--- a/Arbeitsmatrix/Abgabe 2.xlsx
+++ b/Arbeitsmatrix/Abgabe 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\giphub data\GDW_WS1920_Bomba_Zimmer_Nguyen\Arbeitsmatrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0005A03-3B3B-430A-84CE-E8367B854A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C0BC6-1510-4F2D-8C13-350186856223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Grundlagen des Web</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>Proof of Concept</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
   </si>
   <si>
     <t>Wiki</t>
@@ -214,9 +205,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -236,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,7 +512,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,131 +523,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.25</v>
       </c>
     </row>
